--- a/OS概念题库.xlsx
+++ b/OS概念题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="215">
   <si>
     <t>词数</t>
   </si>
@@ -724,35 +724,6 @@
   </si>
   <si>
     <t>信号量机制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>题库来自PC端软件（OS_Concepts），答案仅供参考。虽然经过多次修改，但仍难免会有疏漏和不当之处，恳请及时指正，并将bug告知本人，以便修订后发布新的版本。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4.1  2017.5.22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不剥夺条件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（不可抢占性资源）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>****两种答案都正确 教材版本不同答案稍有出入****</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -805,92 +776,6 @@
   </si>
   <si>
     <r>
-      <t>注：经过分组核对，用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>标记两者皆可的答案，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>红色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>标记原答案不对的地方，改动的相应题目后面用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>紫色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>标记备注。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（I/O）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -911,69 +796,6 @@
       </rPr>
       <t>通路</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（3）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件同步机制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>****第三种我们没有学，所以加上也可以 不加也可以****</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>剥夺资源</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(抢占资源)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>撤销进程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（终止进程）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>****两种答案都正确 教材版本不同答案稍有出入****</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1025,10 +847,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>*****红色部分正确，原答案不对****</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>分组核对信息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1065,11 +883,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>****红色部分正确，原答案不对****</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>****第一空都可以，第二空红色的正确，原答案不对****</t>
+    <t>通道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥夺资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销进程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.4  2017.5.22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库来自PC端软件（OS_Concepts），答案仅供参考。虽然经过分组核对、多次修改，但仍难免会有疏漏和不当之处，恳请及时指正，并将bug告知本人，以便修订后发布新的版本。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1077,7 +907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,22 +968,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1231,12 +1045,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1245,25 +1071,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1588,1182 +1402,1152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>73</v>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="A7" s="16"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>147</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="16" t="s">
+        <v>203</v>
+      </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>216</v>
-      </c>
+      <c r="A28" s="16"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="16"/>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="16"/>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="16"/>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="16"/>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="16"/>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
-        <v>218</v>
-      </c>
+      <c r="A42" s="16"/>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+        <v>154</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="16"/>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="16"/>
+      <c r="B47" s="1">
         <v>3</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
-      <c r="B47" s="1">
-        <v>4</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
+      <c r="A48" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="B48" s="1">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
-        <v>219</v>
-      </c>
+      <c r="A49" s="16"/>
       <c r="B49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>146</v>
+        <v>98</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="1">
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="12"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="16"/>
+      <c r="B53" s="1">
         <v>3</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="12"/>
-      <c r="B53" s="1">
-        <v>5</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="12"/>
+      <c r="A55" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="16"/>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="16"/>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="16"/>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="16"/>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="16"/>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="16"/>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="16"/>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="16"/>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="16"/>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="16"/>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="16"/>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="16"/>
+      <c r="B68" s="1">
         <v>3</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" s="1">
-        <v>4</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="12"/>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="12"/>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="12"/>
-      <c r="B59" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="12"/>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="12"/>
-      <c r="B61" s="1">
+      <c r="C68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="1">
         <v>2</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="12"/>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="12"/>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="12"/>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="12"/>
-      <c r="B67" s="1">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="12"/>
-      <c r="B68" s="1">
-        <v>2</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="12"/>
-      <c r="B69" s="1">
-        <v>3</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
-        <v>222</v>
-      </c>
+      <c r="A70" s="16"/>
       <c r="B70" s="1">
         <v>2</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="12"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="1">
         <v>2</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="12"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="1">
         <v>2</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="12"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="12"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="12"/>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="1" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A4:H4"/>
+  <mergeCells count="18">
+    <mergeCell ref="A69:A74"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
